--- a/trunk/Documentation/Management/Communications/Meetings/Minutes of Meeting - 2011-08-13.xlsx
+++ b/trunk/Documentation/Management/Communications/Meetings/Minutes of Meeting - 2011-08-13.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="8475" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="8475" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="Minutes" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Issues From Last Minutes" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_GoBack" localSheetId="1">Minutes!#REF!</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>FYP Project Meeting Minutes</t>
   </si>
@@ -136,6 +136,58 @@
 Tin
 Junaith
 </t>
+  </si>
+  <si>
+    <t>UCRR</t>
+  </si>
+  <si>
+    <t>The team discussed about the pertaining UCRR issues.</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Naming Conventions</t>
+  </si>
+  <si>
+    <t>The team discussed and ironed out issues about Naming Conventions.</t>
+  </si>
+  <si>
+    <t>Review of last week’s tasks</t>
+  </si>
+  <si>
+    <t>The team reviewed last week’s issues/ tasks</t>
+  </si>
+  <si>
+    <t>Work flow controller</t>
+  </si>
+  <si>
+    <t>Work flow controller take care of queue</t>
+  </si>
+  <si>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>Alvin clarified that entities can’t call each other</t>
+  </si>
+  <si>
+    <t>Queue / entity</t>
+  </si>
+  <si>
+    <t>1. Roger verified with Tim that Queue is only at object level and not at entity object level. Tim confirmed it.
+2. Tim Told Roger that the the Queue contains both Steps and Workflow
+3. Tim told Phyo that Queue is based on FIFO as well as priority</t>
+  </si>
+  <si>
+    <t>Tim / Roger
+Tim / Roger
+Tim / Roger</t>
+  </si>
+  <si>
+    <t>Steps for cylinders</t>
+  </si>
+  <si>
+    <t>The steps (work to be done )for cylinders are not fixed and can change.</t>
   </si>
 </sst>
 </file>
@@ -633,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -834,12 +886,183 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>